--- a/results/distanceScores.xlsx
+++ b/results/distanceScores.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="columnNames" sheetId="2" r:id="rId2"/>
+    <sheet name="scores" sheetId="1" r:id="rId1"/>
+    <sheet name="HomeScores" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="columnNames" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="137">
   <si>
     <t>scoreAvg</t>
   </si>
@@ -414,6 +416,29 @@
   <si>
     <t>Index</t>
   </si>
+  <si>
+    <t>STRTTIME 
+v. 
+ENDTIME</t>
+  </si>
+  <si>
+    <t>Home (Military Time)</t>
+  </si>
+  <si>
+    <t>Home (Normalized &amp; Minutes)</t>
+  </si>
+  <si>
+    <t>Home (Minutes)</t>
+  </si>
+  <si>
+    <t>ENDTIME 
+v.
+DWELTIME</t>
+  </si>
+  <si>
+    <t>STARTTIME v.
+ TRIPMILES</t>
+  </si>
 </sst>
 </file>
 
@@ -495,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -508,6 +533,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -520,12 +551,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,7 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M14" sqref="M14:P14"/>
     </sheetView>
   </sheetViews>
@@ -852,30 +880,30 @@
   <sheetData>
     <row r="1" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="H2" s="12" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="H2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="M2" s="13" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="M2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="R2" s="14" t="s">
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="R2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -931,7 +959,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -973,7 +1001,7 @@
       <c r="U4" s="9"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -1013,7 +1041,7 @@
       <c r="U5" s="9"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="12"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1053,30 +1081,30 @@
       <c r="U6" s="9"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="H8" s="12" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="H8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="M8" s="13" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="M8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="R8" s="14" t="s">
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="R8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -1132,7 +1160,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
@@ -1176,7 +1204,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="12"/>
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -1218,7 +1246,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="12"/>
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -1260,36 +1288,36 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="H14" s="17" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="H14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="M14" s="12" t="s">
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="M14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="R14" s="13" t="s">
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="R14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="W14" s="14" t="s">
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="W14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -1357,7 +1385,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B16" t="s">
@@ -1387,7 +1415,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="12"/>
       <c r="B17" t="s">
         <v>1</v>
       </c>
@@ -1415,7 +1443,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="12"/>
       <c r="B18" t="s">
         <v>2</v>
       </c>
@@ -1443,36 +1471,36 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="H20" s="17" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="H20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="M20" s="12" t="s">
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="M20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="R20" s="13" t="s">
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="R20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="W20" s="14" t="s">
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="W20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -1540,7 +1568,7 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B22" t="s">
@@ -1578,7 +1606,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="12"/>
       <c r="B23" t="s">
         <v>1</v>
       </c>
@@ -1614,7 +1642,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="12"/>
       <c r="B24" t="s">
         <v>2</v>
       </c>
@@ -1651,28 +1679,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="M14:P14"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="W20:Z20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1680,6 +1708,673 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1" customWidth="1"/>
+    <col min="12" max="12" width="1.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C2" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="H2" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="M2" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>6</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="2">
+        <v>3</v>
+      </c>
+      <c r="N3" s="2">
+        <v>4</v>
+      </c>
+      <c r="O3" s="2">
+        <v>5</v>
+      </c>
+      <c r="P3" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>7</v>
+      </c>
+      <c r="R3" s="20">
+        <v>8</v>
+      </c>
+      <c r="S3" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>217.955216396</v>
+      </c>
+      <c r="D4" s="3">
+        <v>182.17794854100001</v>
+      </c>
+      <c r="E4" s="3">
+        <v>158.52844554000001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>152.91289501200001</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="M4" s="3">
+        <v>125.018854671</v>
+      </c>
+      <c r="N4" s="3">
+        <v>105.233861225</v>
+      </c>
+      <c r="O4" s="3">
+        <v>87.167741288000002</v>
+      </c>
+      <c r="P4" s="3">
+        <v>87.033453487299994</v>
+      </c>
+      <c r="Q4">
+        <v>89.856038197199993</v>
+      </c>
+      <c r="R4">
+        <v>80.805390309000003</v>
+      </c>
+      <c r="S4">
+        <v>70.218208919399999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1035.8948116199999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1064.9569257400001</v>
+      </c>
+      <c r="E5" s="3">
+        <v>887.95379212</v>
+      </c>
+      <c r="F5" s="3">
+        <v>653.75384962299995</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="M5" s="3">
+        <v>546.66925470499996</v>
+      </c>
+      <c r="N5" s="3">
+        <v>569.69444846900001</v>
+      </c>
+      <c r="O5" s="3">
+        <v>470.04729965000001</v>
+      </c>
+      <c r="P5" s="3">
+        <v>427.12548091899998</v>
+      </c>
+      <c r="Q5">
+        <v>238.727640189</v>
+      </c>
+      <c r="R5">
+        <v>205.45137081600001</v>
+      </c>
+      <c r="S5">
+        <v>194.836381477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1.88342717996</v>
+      </c>
+      <c r="D6" s="19">
+        <v>2.9571067811899998</v>
+      </c>
+      <c r="E6" s="19">
+        <v>3.4828427124700001</v>
+      </c>
+      <c r="F6" s="19">
+        <v>15.633516482099999</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="19">
+        <v>4.0786893258300001</v>
+      </c>
+      <c r="N6" s="19">
+        <v>4.7430285886899997</v>
+      </c>
+      <c r="O6" s="19">
+        <v>2.5192512120799999</v>
+      </c>
+      <c r="P6" s="19">
+        <v>4.5858132468599999</v>
+      </c>
+      <c r="Q6">
+        <v>17.268448284600002</v>
+      </c>
+      <c r="R6">
+        <v>16.756338858399999</v>
+      </c>
+      <c r="S6">
+        <v>16.774982248000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>187.56487766399999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>578.36229621699999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>131.19679658000001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>115.277754097</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="S7">
+        <v>5.9740523657E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>620.071300888</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10.280776406399999</v>
+      </c>
+      <c r="E8" s="3">
+        <v>494.02202551599999</v>
+      </c>
+      <c r="F8" s="3">
+        <v>480.260335774</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="S8">
+        <v>0.185793001337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="19">
+        <v>10.272217942099999</v>
+      </c>
+      <c r="D9" s="19">
+        <v>36493.335018882499</v>
+      </c>
+      <c r="E9" s="19">
+        <v>7.4422205101900003</v>
+      </c>
+      <c r="F9" s="19">
+        <v>6.1230295304700002</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="S9">
+        <v>9.5933672677799998E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>187.56487766399999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>578.36229621699999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>131.19679658000001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>115.277754097</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>620.071300888</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10.280776406399999</v>
+      </c>
+      <c r="E11" s="3">
+        <v>494.02202551599999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>480.260335774</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10.272217942099999</v>
+      </c>
+      <c r="D12" s="3">
+        <v>36493.335018882499</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7.4422205101900003</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6.1230295304700002</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f>AVERAGE(M4:M6)</f>
+        <v>225.25559956727668</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14:R14" si="0">AVERAGE(N4:N6)</f>
+        <v>226.55711276089667</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>186.57809738336002</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>172.91491588438666</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>115.28404222360001</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>101.00436666113335</v>
+      </c>
+    </row>
+    <row r="18" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <f>ABS(N4-M4)/M4</f>
+        <v>0.15825607663792993</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18:S18" si="1">ABS(O4-N4)/N4</f>
+        <v>0.17167591996242459</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>1.5405676310497095E-3</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>3.2431031940055942E-2</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>0.10072386975639014</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>0.13102073202189357</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C4:K12">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:P12">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:P12">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F12">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:P4">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:P5">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:P6">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:Q4">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:Q5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:Q6">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:R4">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:R5">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:R6">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:S4">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:S5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:S6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY51"/>
   <sheetViews>

--- a/results/distanceScores.xlsx
+++ b/results/distanceScores.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="scores" sheetId="1" r:id="rId1"/>
@@ -533,12 +533,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -548,12 +545,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,6 +597,1035 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Distance per Cluster</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>HomeScores!$M$17:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>HomeScores!$M$18:$Q$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15825607663792993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17167591996242459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5405676310497095E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2431031940055942E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DF3-4A0B-B734-53299F6A2C0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="432317824"/>
+        <c:axId val="432318240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="432317824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Clusters</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432318240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="432318240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score Improvement</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432317824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>168729</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -864,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:P14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,30 +1909,30 @@
   <sheetData>
     <row r="1" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="H2" s="14" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="H2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="M2" s="15" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="M2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="R2" s="16" t="s">
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="R2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -959,7 +1988,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -1001,7 +2030,7 @@
       <c r="U4" s="9"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="18"/>
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -1041,7 +2070,7 @@
       <c r="U5" s="9"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="18"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1081,30 +2110,30 @@
       <c r="U6" s="9"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="H8" s="14" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="H8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="M8" s="15" t="s">
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="M8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="R8" s="16" t="s">
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="R8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -1160,7 +2189,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
@@ -1204,7 +2233,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="18"/>
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -1246,7 +2275,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="18"/>
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -1288,36 +2317,36 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="H14" s="13" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="H14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="M14" s="14" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="M14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="R14" s="15" t="s">
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="R14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="W14" s="16" t="s">
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="W14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -1385,7 +2414,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B16" t="s">
@@ -1415,7 +2444,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="18"/>
       <c r="B17" t="s">
         <v>1</v>
       </c>
@@ -1443,7 +2472,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="18"/>
       <c r="B18" t="s">
         <v>2</v>
       </c>
@@ -1471,36 +2500,36 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="H20" s="13" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="H20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="M20" s="14" t="s">
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="M20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="R20" s="15" t="s">
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="R20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="W20" s="16" t="s">
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="W20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -1568,7 +2597,7 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B22" t="s">
@@ -1606,7 +2635,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="18"/>
       <c r="B23" t="s">
         <v>1</v>
       </c>
@@ -1642,7 +2671,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="18"/>
       <c r="B24" t="s">
         <v>2</v>
       </c>
@@ -1679,28 +2708,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H8:K8"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="R8:U8"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="M14:P14"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="W20:Z20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1711,11 +2740,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,25 +2757,25 @@
   <sheetData>
     <row r="1" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="H2" s="13" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="M2" s="13" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="M2" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1764,7 +2793,7 @@
       <c r="F3" s="2">
         <v>6</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="2">
         <v>3</v>
       </c>
@@ -1777,7 +2806,7 @@
       <c r="K3" s="2">
         <v>6</v>
       </c>
-      <c r="L3" s="18"/>
+      <c r="L3" s="12"/>
       <c r="M3" s="2">
         <v>3</v>
       </c>
@@ -1793,15 +2822,15 @@
       <c r="Q3" s="2">
         <v>7</v>
       </c>
-      <c r="R3" s="20">
+      <c r="R3" s="14">
         <v>8</v>
       </c>
-      <c r="S3" s="20">
+      <c r="S3" s="14">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="18" t="s">
         <v>131</v>
       </c>
       <c r="B4" t="s">
@@ -1846,7 +2875,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="18"/>
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -1889,38 +2918,38 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="19">
+      <c r="A6" s="18"/>
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13">
         <v>1.88342717996</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="13">
         <v>2.9571067811899998</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="13">
         <v>3.4828427124700001</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="13">
         <v>15.633516482099999</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19">
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13">
         <v>4.0786893258300001</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="13">
         <v>4.7430285886899997</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="13">
         <v>2.5192512120799999</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="13">
         <v>4.5858132468599999</v>
       </c>
       <c r="Q6">
@@ -1934,7 +2963,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B7" t="s">
@@ -1965,7 +2994,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="18"/>
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -1994,38 +3023,38 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="19">
+      <c r="A9" s="18"/>
+      <c r="B9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13">
         <v>10.272217942099999</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="13">
         <v>36493.335018882499</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="13">
         <v>7.4422205101900003</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="13">
         <v>6.1230295304700002</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
       <c r="S9">
         <v>9.5933672677799998E-3</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="18" t="s">
         <v>136</v>
       </c>
       <c r="B10" t="s">
@@ -2053,7 +3082,7 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="18"/>
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -2079,7 +3108,7 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="18"/>
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -2130,7 +3159,33 @@
         <v>101.00436666113335</v>
       </c>
     </row>
-    <row r="18" spans="14:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>0</v>
+      </c>
       <c r="N18">
         <f>ABS(N4-M4)/M4</f>
         <v>0.15825607663792993</v>
@@ -2359,6 +3414,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
